--- a/_Out/NFDataCfg/Excel/Team.xlsx
+++ b/_Out/NFDataCfg/Excel/Team.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -745,9 +745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -783,10 +783,10 @@
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="b">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -794,10 +794,10 @@
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="b">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -805,10 +805,10 @@
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="b">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -816,10 +816,10 @@
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="b">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -827,10 +827,10 @@
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="b">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
         <v>0</v>
       </c>
     </row>
@@ -838,10 +838,10 @@
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="b">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
         <v>0</v>
       </c>
     </row>
@@ -849,10 +849,10 @@
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="b">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
         <v>0</v>
       </c>
     </row>
@@ -934,7 +934,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="b">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -942,7 +942,7 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="b">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -950,7 +950,7 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="b">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -958,7 +958,7 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="b">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -966,7 +966,7 @@
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="3" t="b">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="b">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="b">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="b">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="b">
+      <c r="B18" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="b">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1216,7 +1216,7 @@
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/_Out/NFDataCfg/Excel/Team.xlsx
+++ b/_Out/NFDataCfg/Excel/Team.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -180,7 +180,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -330,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +380,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,7 +410,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -742,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -870,8 +882,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -882,11 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -964,7 +976,7 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -972,119 +984,127 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1">
+      <c r="A11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1">
+      <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:10" s="3" customFormat="1">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
         <v>7</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1092,85 +1112,122 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1">
+      <c r="A24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="A25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1">
+      <c r="A26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B26" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:G19 B7:B8 A4:B6 D1:G8 A15:B17 D22:G1048576 B18:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B10 A4:B6 D1:G10 A17:B19 D26:G1048576 B20:B23 D13:G23" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A23:B23 A9:A10 A20:A21 L1:L1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A27:B27 A11:A12 A24:A25 L1:L1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A24:B24 B9:B10 B20:B21 M1:M1048576"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8 B16396:C1048576 C22:C16395 A2:B3 A13:B14 C11:C19">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A28:B28 B11:B12 B24:B25 M1:M1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 B16400:C1048576 C26:C16399 A2:B3 A15:B16 C13:C23" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1181,10 +1238,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1226,10 +1283,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"lua,python,C#,js"</formula1>
     </dataValidation>
   </dataValidations>
